--- a/Data/Delphi round 1/response sheets/Adam Th - give your expert opinion on woodland condition1112.xlsx
+++ b/Data/Delphi round 1/response sheets/Adam Th - give your expert opinion on woodland condition1112.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26616"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg.sharepoint.com/sites/ConservationOutcomesEvidence-EcologicalConditionAssessmentProject/Shared Documents/Ecological Condition Assessment Project/Delphi process material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Woodland-condition/Data/Delphi round 1/response sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="524" documentId="8_{DD3140B9-43BA-428D-8B9F-F9C103859F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6157433-0F01-444D-8138-B23327F4CD17}"/>
+  <xr:revisionPtr revIDLastSave="529" documentId="8_{DD3140B9-43BA-428D-8B9F-F9C103859F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD9F8BE6-CEB8-4F08-9004-9891631A3956}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree age distribution" sheetId="20" r:id="rId1"/>
@@ -721,7 +721,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1519,7 +1519,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1910,7 +1910,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2277,7 +2277,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2643,7 +2643,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3009,7 +3009,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3375,7 +3375,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3741,7 +3741,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4074,7 +4074,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4141,23 +4141,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Native canopy percentage '!$A$11:$A$17</c:f>
+              <c:f>'Native canopy percentage '!$A$10:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -4165,23 +4168,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Native canopy percentage '!$B$11:$B$17</c:f>
+              <c:f>'Native canopy percentage '!$B$10:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -4470,7 +4476,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4542,18 +4548,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -4566,18 +4569,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
@@ -4606,7 +4606,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4867,7 +4867,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4939,7 +4939,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -5021,7 +5021,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5281,7 +5281,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5683,7 +5683,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6091,7 +6091,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6457,7 +6457,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6823,7 +6823,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -18727,7 +18727,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -18736,12 +18736,12 @@
     <col min="12" max="12" width="62.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
@@ -18750,12 +18750,12 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="23.45">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -18771,21 +18771,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.45">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -18794,7 +18794,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -18803,7 +18803,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -18828,7 +18828,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -18851,7 +18851,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -18865,7 +18865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -18873,7 +18873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -18888,7 +18888,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -18903,7 +18903,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -18918,7 +18918,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13" t="s">
@@ -18933,7 +18933,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -18948,7 +18948,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -18963,7 +18963,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -18978,7 +18978,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13"/>
@@ -18993,7 +18993,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -19008,7 +19008,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -19023,7 +19023,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -19038,7 +19038,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13"/>
@@ -19053,7 +19053,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="13" t="s">
@@ -19068,7 +19068,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -19085,7 +19085,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -19100,14 +19100,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -19115,7 +19115,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -19123,7 +19123,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -19131,7 +19131,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -19139,7 +19139,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -19147,7 +19147,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -19155,82 +19155,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -19257,7 +19257,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -19265,24 +19265,24 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>118</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="23.45">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -19296,21 +19296,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.45">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -19319,7 +19319,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>119</v>
       </c>
@@ -19328,7 +19328,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -19349,7 +19349,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -19368,7 +19368,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -19376,11 +19376,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -19395,7 +19395,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -19410,7 +19410,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13"/>
@@ -19425,7 +19425,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -19440,7 +19440,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -19455,7 +19455,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13" t="s">
@@ -19470,7 +19470,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -19485,7 +19485,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13"/>
@@ -19500,7 +19500,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -19515,7 +19515,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13" t="s">
@@ -19530,7 +19530,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -19545,15 +19545,15 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -19570,7 +19570,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -19585,21 +19585,21 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -19607,7 +19607,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -19615,7 +19615,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -19623,7 +19623,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -19631,7 +19631,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -19639,82 +19639,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -19741,7 +19741,7 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -19749,12 +19749,12 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>130</v>
       </c>
@@ -19763,7 +19763,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>131</v>
       </c>
@@ -19774,7 +19774,7 @@
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13" t="s">
         <v>133</v>
@@ -19783,12 +19783,12 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="6" spans="1:18" ht="23.45">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -19802,21 +19802,21 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="23.45">
+    <row r="9" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="15.6">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -19825,7 +19825,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>134</v>
       </c>
@@ -19834,7 +19834,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="27" t="s">
@@ -19855,7 +19855,7 @@
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="27"/>
@@ -19874,7 +19874,7 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="1" t="s">
@@ -19882,11 +19882,11 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="28" t="s">
@@ -19901,7 +19901,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13" t="s">
@@ -19916,7 +19916,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -19931,7 +19931,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -19946,7 +19946,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13"/>
@@ -19961,7 +19961,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13" t="s">
@@ -19976,7 +19976,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -19991,7 +19991,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="14"/>
@@ -20004,7 +20004,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13"/>
@@ -20017,7 +20017,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -20030,7 +20030,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="I27" s="13"/>
@@ -20043,7 +20043,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="I28" s="14"/>
@@ -20056,7 +20056,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="I29" s="14"/>
@@ -20069,7 +20069,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="D30" s="27" t="s">
@@ -20086,7 +20086,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="D31" s="27"/>
@@ -20101,14 +20101,14 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:17" ht="15" thickBot="1">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="D32" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="15" t="s">
@@ -20116,7 +20116,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -20124,7 +20124,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -20132,7 +20132,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="16" t="s">
@@ -20140,7 +20140,7 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="16" t="s">
@@ -20148,7 +20148,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="16" t="s">
@@ -20156,82 +20156,82 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="17"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
     </row>
@@ -20258,7 +20258,7 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -20266,12 +20266,12 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>140</v>
       </c>
@@ -20290,12 +20290,12 @@
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:18" ht="23.45">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -20309,21 +20309,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.45">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -20332,7 +20332,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>141</v>
       </c>
@@ -20341,7 +20341,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -20362,7 +20362,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -20381,7 +20381,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -20389,11 +20389,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -20408,7 +20408,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -20423,7 +20423,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13"/>
@@ -20438,7 +20438,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -20453,7 +20453,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -20468,7 +20468,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13" t="s">
@@ -20483,7 +20483,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -20498,7 +20498,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="14"/>
@@ -20511,7 +20511,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -20524,7 +20524,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="14"/>
@@ -20537,7 +20537,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -20550,7 +20550,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="14"/>
@@ -20563,7 +20563,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -20576,7 +20576,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -20593,7 +20593,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -20608,14 +20608,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -20623,7 +20623,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -20631,7 +20631,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -20639,7 +20639,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -20647,7 +20647,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -20655,7 +20655,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -20663,82 +20663,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -20765,7 +20765,7 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -20773,12 +20773,12 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>147</v>
       </c>
@@ -20787,7 +20787,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="15.6">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="22" t="s">
         <v>148</v>
@@ -20796,7 +20796,7 @@
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>149</v>
       </c>
@@ -20805,12 +20805,12 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="6" spans="1:18" ht="23.45">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -20824,21 +20824,21 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="23.45">
+    <row r="9" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="15.6">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -20847,7 +20847,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>150</v>
       </c>
@@ -20856,7 +20856,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="27" t="s">
@@ -20877,7 +20877,7 @@
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="27"/>
@@ -20896,7 +20896,7 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="1" t="s">
@@ -20904,11 +20904,11 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="28" t="s">
@@ -20923,7 +20923,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13" t="s">
@@ -20938,7 +20938,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13" t="s">
@@ -20953,7 +20953,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13" t="s">
@@ -20968,7 +20968,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13" t="s">
@@ -20983,7 +20983,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -20996,7 +20996,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -21009,7 +21009,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="14"/>
@@ -21022,7 +21022,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13"/>
@@ -21035,7 +21035,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -21048,7 +21048,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="I27" s="13"/>
@@ -21061,7 +21061,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="I28" s="14"/>
@@ -21074,7 +21074,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="I29" s="14"/>
@@ -21087,7 +21087,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="D30" s="27" t="s">
@@ -21104,7 +21104,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="D31" s="27"/>
@@ -21119,14 +21119,14 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:17" ht="15" thickBot="1">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="D32" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="15" t="s">
@@ -21134,7 +21134,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -21142,7 +21142,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -21150,7 +21150,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="16" t="s">
@@ -21158,7 +21158,7 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="16" t="s">
@@ -21166,7 +21166,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="16" t="s">
@@ -21174,82 +21174,82 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="17"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
     </row>
@@ -21276,7 +21276,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -21284,12 +21284,12 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>156</v>
       </c>
@@ -21300,7 +21300,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="15.6">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="22" t="s">
         <v>157</v>
@@ -21311,7 +21311,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13" t="s">
         <v>158</v>
@@ -21322,12 +21322,12 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="6" spans="1:18" ht="23.45">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -21341,21 +21341,21 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="23.45">
+    <row r="9" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="15.6">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -21364,7 +21364,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>159</v>
       </c>
@@ -21373,7 +21373,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="27" t="s">
@@ -21394,7 +21394,7 @@
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="27"/>
@@ -21413,7 +21413,7 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="1" t="s">
@@ -21421,11 +21421,11 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="28" t="s">
@@ -21440,7 +21440,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -21453,7 +21453,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -21466,7 +21466,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -21479,7 +21479,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13"/>
@@ -21492,7 +21492,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -21505,7 +21505,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -21518,7 +21518,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="14"/>
@@ -21531,7 +21531,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13"/>
@@ -21544,7 +21544,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -21557,7 +21557,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="I27" s="13"/>
@@ -21570,7 +21570,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="I28" s="14"/>
@@ -21583,7 +21583,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="I29" s="14"/>
@@ -21596,7 +21596,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="D30" s="27" t="s">
@@ -21613,7 +21613,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="D31" s="27"/>
@@ -21628,14 +21628,14 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:17" ht="15" thickBot="1">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="D32" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="15" t="s">
@@ -21643,7 +21643,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -21651,7 +21651,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -21659,7 +21659,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="16" t="s">
@@ -21667,7 +21667,7 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="16" t="s">
@@ -21675,7 +21675,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="16" t="s">
@@ -21683,82 +21683,82 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="17"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
     </row>
@@ -21785,7 +21785,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
@@ -21793,37 +21793,37 @@
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.95">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="26.1">
+    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26.1">
+    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="20" customFormat="1" ht="15.6">
+    <row r="5" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>166</v>
       </c>
@@ -21849,7 +21849,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>174</v>
       </c>
@@ -21861,7 +21861,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>175</v>
       </c>
@@ -21873,7 +21873,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>176</v>
       </c>
@@ -21885,7 +21885,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>177</v>
       </c>
@@ -21897,7 +21897,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>178</v>
       </c>
@@ -21909,7 +21909,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>179</v>
       </c>
@@ -21921,7 +21921,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>180</v>
       </c>
@@ -21933,7 +21933,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>155</v>
       </c>
@@ -21945,7 +21945,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>108</v>
       </c>
@@ -21957,7 +21957,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>181</v>
       </c>
@@ -21969,7 +21969,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>182</v>
       </c>
@@ -21981,7 +21981,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>183</v>
       </c>
@@ -21993,7 +21993,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>184</v>
       </c>
@@ -22005,7 +22005,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>117</v>
       </c>
@@ -22034,10 +22034,10 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -22045,12 +22045,12 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>34</v>
       </c>
@@ -22058,12 +22058,12 @@
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="23.45">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
@@ -22079,21 +22079,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.45">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -22102,7 +22102,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>36</v>
       </c>
@@ -22111,7 +22111,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -22136,7 +22136,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>20</v>
       </c>
@@ -22159,7 +22159,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>40</v>
       </c>
@@ -22173,7 +22173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>60</v>
       </c>
@@ -22181,7 +22181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>80</v>
       </c>
@@ -22189,7 +22189,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>100</v>
       </c>
@@ -22204,7 +22204,7 @@
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -22215,7 +22215,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -22226,7 +22226,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -22237,7 +22237,7 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -22248,35 +22248,35 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -22293,7 +22293,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -22308,14 +22308,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -22323,7 +22323,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -22331,7 +22331,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -22339,7 +22339,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -22347,7 +22347,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -22355,7 +22355,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -22363,82 +22363,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -22461,11 +22461,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADE01BF-891C-4D98-B138-661CC22AFA79}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -22473,24 +22473,24 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="20" customFormat="1" ht="15.6">
+    <row r="2" spans="1:18" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:18" ht="23.45">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>44</v>
       </c>
@@ -22506,21 +22506,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.45">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -22529,7 +22529,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>46</v>
       </c>
@@ -22538,12 +22538,12 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>10</v>
@@ -22563,12 +22563,12 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -22586,33 +22586,29 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="2">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2">
-        <v>90</v>
-      </c>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
         <v>12</v>
       </c>
@@ -22625,7 +22621,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13"/>
@@ -22638,7 +22634,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -22653,7 +22649,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -22668,7 +22664,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -22683,7 +22679,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -22698,7 +22694,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13" t="s">
@@ -22713,7 +22709,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13"/>
@@ -22728,7 +22724,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -22743,7 +22739,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -22758,7 +22754,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -22773,7 +22769,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13"/>
@@ -22786,7 +22782,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="13"/>
@@ -22799,7 +22795,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -22816,7 +22812,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -22831,14 +22827,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -22846,7 +22842,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -22854,7 +22850,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -22862,7 +22858,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -22870,7 +22866,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -22878,7 +22874,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -22886,82 +22882,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -22984,11 +22980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E3BDB2-4936-4583-A0D1-731A826C7FE6}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -22996,22 +22992,22 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18.600000000000001">
+    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="23.45">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>59</v>
       </c>
@@ -23027,21 +23023,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.45">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -23050,7 +23046,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>60</v>
       </c>
@@ -23059,9 +23055,9 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -23084,7 +23080,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -23107,7 +23103,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -23121,7 +23117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -23129,7 +23125,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -23145,7 +23141,7 @@
       <c r="M14" s="28"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -23161,7 +23157,7 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -23177,7 +23173,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -23193,7 +23189,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -23205,7 +23201,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -23217,7 +23213,7 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13" t="s">
@@ -23229,31 +23225,31 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -23270,7 +23266,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -23285,14 +23281,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -23300,7 +23296,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -23308,7 +23304,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -23316,7 +23312,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -23324,7 +23320,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -23332,7 +23328,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -23340,82 +23336,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -23442,7 +23438,7 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -23450,12 +23446,12 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>67</v>
       </c>
@@ -23464,12 +23460,12 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="23.45">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>68</v>
       </c>
@@ -23485,21 +23481,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.45">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -23508,7 +23504,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>69</v>
       </c>
@@ -23517,7 +23513,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -23542,7 +23538,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>20</v>
       </c>
@@ -23565,7 +23561,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>40</v>
       </c>
@@ -23579,7 +23575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>60</v>
       </c>
@@ -23587,7 +23583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>80</v>
       </c>
@@ -23595,7 +23591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>100</v>
       </c>
@@ -23614,7 +23610,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -23629,7 +23625,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -23644,7 +23640,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -23659,7 +23655,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -23674,35 +23670,35 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -23719,7 +23715,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -23734,14 +23730,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -23751,7 +23747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -23759,7 +23755,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -23767,7 +23763,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -23775,7 +23771,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -23783,7 +23779,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -23791,82 +23787,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -23889,11 +23885,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0052CDC1-50AA-4214-9222-E664425944FA}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -23901,22 +23897,22 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36">
+    <row r="1" spans="1:20" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="20" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="23.45">
+    <row r="3" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.6">
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>76</v>
       </c>
@@ -23932,21 +23928,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:20" ht="23.45">
+    <row r="6" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.6">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:20" ht="15.6">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -23955,7 +23951,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>77</v>
       </c>
@@ -23964,7 +23960,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -23989,7 +23985,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -24012,7 +24008,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -24026,7 +24022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -24034,7 +24030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -24056,7 +24052,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -24078,7 +24074,7 @@
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -24100,7 +24096,7 @@
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="14"/>
@@ -24118,7 +24114,7 @@
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="14"/>
@@ -24136,7 +24132,7 @@
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="14"/>
@@ -24154,7 +24150,7 @@
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="14"/>
@@ -24172,7 +24168,7 @@
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="14"/>
@@ -24190,7 +24186,7 @@
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13" t="s">
@@ -24208,7 +24204,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -24226,7 +24222,7 @@
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -24244,7 +24240,7 @@
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13" t="s">
@@ -24262,7 +24258,7 @@
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="13" t="s">
@@ -24280,7 +24276,7 @@
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1">
+    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -24297,7 +24293,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1">
+    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -24312,14 +24308,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:20" ht="15" thickBot="1">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -24327,7 +24323,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -24335,7 +24331,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -24343,7 +24339,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -24351,7 +24347,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -24359,7 +24355,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -24367,82 +24363,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -24469,7 +24465,7 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -24477,29 +24473,29 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:18" ht="23.45">
+    <row r="4" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.6">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -24513,21 +24509,21 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="23.45">
+    <row r="7" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.6">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="15.6">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
@@ -24536,7 +24532,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>93</v>
       </c>
@@ -24545,7 +24541,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27" t="s">
@@ -24566,7 +24562,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="27"/>
@@ -24585,7 +24581,7 @@
       <c r="Q12" s="27"/>
       <c r="R12" s="27"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="1" t="s">
@@ -24593,11 +24589,11 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="28" t="s">
@@ -24612,7 +24608,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -24627,7 +24623,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -24642,7 +24638,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -24657,7 +24653,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -24672,7 +24668,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13" t="s">
@@ -24687,7 +24683,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="14"/>
@@ -24702,7 +24698,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -24717,7 +24713,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="14"/>
@@ -24732,7 +24728,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="14"/>
@@ -24745,19 +24741,19 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27" t="s">
@@ -24774,7 +24770,7 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="27"/>
@@ -24789,14 +24785,14 @@
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
     </row>
-    <row r="30" spans="1:17" ht="15" thickBot="1">
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="D30" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="15" t="s">
@@ -24804,7 +24800,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -24812,7 +24808,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -24820,7 +24816,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -24828,7 +24824,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -24836,7 +24832,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="16" t="s">
@@ -24844,82 +24840,82 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="17"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
@@ -24946,7 +24942,7 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -24954,20 +24950,20 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:18" ht="23.45">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -24981,21 +24977,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.45">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -25004,7 +25000,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>103</v>
       </c>
@@ -25013,7 +25009,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -25034,7 +25030,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -25053,7 +25049,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -25061,11 +25057,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -25080,7 +25076,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -25095,7 +25091,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13"/>
@@ -25110,7 +25106,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -25125,7 +25121,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -25140,7 +25136,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13" t="s">
@@ -25155,7 +25151,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -25168,7 +25164,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="14"/>
@@ -25181,7 +25177,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -25194,7 +25190,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="14"/>
@@ -25207,7 +25203,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -25220,7 +25216,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="14"/>
@@ -25233,7 +25229,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -25246,7 +25242,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -25263,7 +25259,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -25278,14 +25274,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -25293,7 +25289,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -25301,7 +25297,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -25309,7 +25305,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -25317,7 +25313,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -25325,7 +25321,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -25333,82 +25329,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -25435,7 +25431,7 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -25443,12 +25439,12 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>109</v>
       </c>
@@ -25456,12 +25452,12 @@
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="23.45">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -25475,21 +25471,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.45">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -25498,7 +25494,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>110</v>
       </c>
@@ -25507,7 +25503,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -25528,7 +25524,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -25547,7 +25543,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -25555,11 +25551,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -25574,7 +25570,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -25589,7 +25585,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13"/>
@@ -25604,7 +25600,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -25619,7 +25615,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -25634,7 +25630,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13" t="s">
@@ -25649,7 +25645,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -25664,7 +25660,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="14"/>
@@ -25679,7 +25675,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -25692,7 +25688,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="14"/>
@@ -25705,7 +25701,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -25718,7 +25714,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="14"/>
@@ -25731,7 +25727,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -25744,7 +25740,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -25761,7 +25757,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -25776,14 +25772,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -25791,7 +25787,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -25799,7 +25795,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -25807,7 +25803,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -25815,7 +25811,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -25823,7 +25819,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -25831,82 +25827,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -25926,25 +25922,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
-      <UserInfo>
-        <DisplayName>Christine Reid</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Adam Thorogood</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF102A4A1803344B8D888EB900B09227" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43bc291949bcf5a898aed47fdf38e56c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="090e8724-afd2-4a00-8d2e-c87448cad135" xmlns:ns3="cce065d8-4207-498d-8ddb-77753710233a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a89575b99fa510669e25d545522f68e" ns2:_="" ns3:_="">
     <xsd:import namespace="090e8724-afd2-4a00-8d2e-c87448cad135"/>
@@ -26135,6 +26112,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
+      <UserInfo>
+        <DisplayName>Christine Reid</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Adam Thorogood</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -26145,13 +26141,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6617C3D-29D9-48EE-BF3C-21AA1A387073}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="090e8724-afd2-4a00-8d2e-c87448cad135"/>
+    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6617C3D-29D9-48EE-BF3C-21AA1A387073}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>